--- a/DartSampleData.xlsx
+++ b/DartSampleData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbrahamAj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktglbuc-my.sharepoint.com/personal/guruprasath_maheswaran_kantar_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B5A9C43-0864-41F5-B64A-C960A00F3F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{6B5A9C43-0864-41F5-B64A-C960A00F3F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72BF453-2F57-4D9F-9266-3A0FAB5E5697}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0F272ED9-B1F5-4E0D-AA7D-CD592C08ACB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F272ED9-B1F5-4E0D-AA7D-CD592C08ACB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Retail Price DAta" sheetId="1" r:id="rId1"/>
-    <sheet name="Sales Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sales Data" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sales Data'!$A$1:$E$91</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="12">
   <si>
     <t>Weeknumber</t>
   </si>
@@ -68,13 +71,19 @@
   <si>
     <t>Shp2</t>
   </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,20 +118,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,6 +144,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,1174 +467,1505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAF96FC-AF81-476A-8C0E-E24E0AC4B43D}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="1" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12301</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <f>TEXT(DATE(2000+INT(LEFT(A2,3)),1,-2) - WEEKDAY(DATE(2000+INT(LEFT(A2,3)),1,3)) + (RIGHT(A2,2)*7), "yyyy-mm-dd")</f>
+        <v>2123-01-04</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12302</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">TEXT(DATE(2000+INT(LEFT(A3,3)),1,-2) - WEEKDAY(DATE(2000+INT(LEFT(A3,3)),1,3)) + (RIGHT(A3,2)*7), "yyyy-mm-dd")</f>
+        <v>2123-01-11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12303</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-01-18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12304</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-01-25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12305</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-02-01</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12306</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-02-08</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12307</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-02-15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12308</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-02-22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12309</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-03-01</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12310</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-03-08</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12311</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-03-15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12312</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-03-22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12313</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-03-29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12314</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-04-05</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12315</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-04-12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>9.06</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12316</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-04-19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>9.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12317</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-04-26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>19.059999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12318</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-05-03</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>8.06</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12319</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-05-10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12320</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-05-17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12321</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-05-24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>92.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12322</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-05-31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12323</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-06-07</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12324</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-06-14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12325</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-06-21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12326</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-06-28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12327</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-07-05</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12328</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-07-12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12329</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-07-19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12330</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-07-26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12331</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-08-02</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12332</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-08-09</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12333</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-08-16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>9.06</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12334</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-08-23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>9.06</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12335</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-08-30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>9.06</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12336</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-09-06</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>9.06</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12337</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-09-13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12338</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-09-20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12339</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-09-27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12340</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-10-04</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12341</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-10-11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12342</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-10-18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>12343</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-10-25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12344</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-11-01</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12345</v>
       </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-11-08</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12346</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-11-15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12347</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-11-22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12348</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-11-29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12349</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-12-06</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12350</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-12-13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12351</v>
       </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-12-20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>7.51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12352</v>
       </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>2123-12-27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
         <v>7.51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>12401</v>
       </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-01-03</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12402</v>
       </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-01-10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12403</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-01-17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12404</v>
       </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-01-24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12405</v>
       </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-01-31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12406</v>
       </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-02-07</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12407</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-02-14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12408</v>
       </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-02-21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12409</v>
       </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-02-28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12410</v>
       </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-03-06</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12411</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-03-13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12412</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-03-20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12413</v>
       </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>2124-03-27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12414</v>
       </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B99" si="1">TEXT(DATE(2000+INT(LEFT(A67,3)),1,-2) - WEEKDAY(DATE(2000+INT(LEFT(A67,3)),1,3)) + (RIGHT(A67,2)*7), "yyyy-mm-dd")</f>
+        <v>2124-04-03</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12415</v>
       </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-04-10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12416</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-04-17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12417</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-04-24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12418</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-05-01</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12419</v>
       </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-05-08</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12420</v>
       </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-05-15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>12421</v>
       </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-05-22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>12422</v>
       </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-05-29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>12423</v>
       </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-06-05</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>12424</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-06-12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>12425</v>
       </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-06-19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12426</v>
       </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-06-26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>12427</v>
       </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-07-03</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12428</v>
       </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-07-10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>12429</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-07-17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12430</v>
       </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-07-24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>12431</v>
       </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-07-31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12432</v>
       </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-08-07</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>12433</v>
       </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-08-14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12434</v>
       </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-08-21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>12435</v>
       </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
+        <v>82164</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12436</v>
       </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-09-04</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12437</v>
       </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-09-11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>12438</v>
       </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-09-18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>12439</v>
       </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-09-25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>12440</v>
       </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-10-02</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>12441</v>
       </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-10-09</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>12442</v>
       </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-10-16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>12443</v>
       </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-10-23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12444</v>
       </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-10-30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>12445</v>
       </c>
-      <c r="B98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-11-06</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>12446</v>
       </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>12447</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>12448</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>12449</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>12450</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>12451</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>12452</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>9.56</v>
-      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>2124-11-13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,18 +1973,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803A4497-245B-4A09-A94A-000709802ED5}">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55654AD7-ACDA-4A24-87C9-A7A489EF6741}">
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1651,10 +1997,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1665,10 +2014,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
+        <f>DATE(B2, C2, 1)</f>
+        <v>44562</v>
+      </c>
+      <c r="E2" s="3">
         <v>313090.90999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1679,10 +2032,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
+        <f t="shared" ref="D3:D66" si="0">DATE(B3, C3, 1)</f>
+        <v>44593</v>
+      </c>
+      <c r="E3" s="3">
         <v>612053.91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1693,10 +2050,14 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>44621</v>
+      </c>
+      <c r="E4" s="3">
         <v>540899.43999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1707,10 +2068,14 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="E5" s="3">
         <v>567123.57999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1721,10 +2086,14 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
+      <c r="E6" s="3">
         <v>16235.08</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1735,10 +2104,14 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="E7" s="3">
         <v>111941.37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1749,10 +2122,14 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="E8" s="3">
         <v>256609.34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1763,10 +2140,14 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>44774</v>
+      </c>
+      <c r="E9" s="3">
         <v>755997.42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1777,10 +2158,14 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>44805</v>
+      </c>
+      <c r="E10" s="3">
         <v>477497.94</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1791,10 +2176,14 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="E11" s="3">
         <v>887272.98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1805,10 +2194,14 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
+      <c r="E12" s="3">
         <v>226698.17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1819,10 +2212,14 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="E13" s="3">
         <v>534927.73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1833,10 +2230,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>44927</v>
+      </c>
+      <c r="E14" s="3">
         <v>115103.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1847,10 +2248,14 @@
         <v>2</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
+      <c r="E15" s="3">
         <v>78570.539999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1861,10 +2266,14 @@
         <v>3</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
+      <c r="E16" s="3">
         <v>934405.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1875,10 +2284,14 @@
         <v>4</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="E17" s="3">
         <v>290115.03000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1889,10 +2302,14 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="E18" s="3">
         <v>831398.08</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1903,10 +2320,14 @@
         <v>6</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
+      <c r="E19" s="3">
         <v>36970.21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1917,10 +2338,14 @@
         <v>7</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="E20" s="3">
         <v>658922.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1931,10 +2356,14 @@
         <v>8</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
+      <c r="E21" s="3">
         <v>707688.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1945,10 +2374,14 @@
         <v>9</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>45170</v>
+      </c>
+      <c r="E22" s="3">
         <v>340033.89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1959,10 +2392,14 @@
         <v>10</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
+      <c r="E23" s="3">
         <v>80317.34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1973,10 +2410,14 @@
         <v>11</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
+      <c r="E24" s="3">
         <v>931830.64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1987,10 +2428,14 @@
         <v>12</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
+      <c r="E25" s="3">
         <v>677233.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2001,10 +2446,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="E26" s="3">
         <v>756906.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2015,10 +2464,14 @@
         <v>2</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
+      <c r="E27" s="3">
         <v>791686.52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2029,10 +2482,14 @@
         <v>3</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>45352</v>
+      </c>
+      <c r="E28" s="3">
         <v>669566.31999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2043,10 +2500,14 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
+      <c r="E29" s="3">
         <v>847465.02</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2057,10 +2518,14 @@
         <v>5</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>45413</v>
+      </c>
+      <c r="E30" s="3">
         <v>77682.350000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2071,10 +2536,14 @@
         <v>6</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>45444</v>
+      </c>
+      <c r="E31" s="3">
         <v>992557.79</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2085,10 +2554,14 @@
         <v>7</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>45474</v>
+      </c>
+      <c r="E32" s="3">
         <v>635251.69999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2099,10 +2572,14 @@
         <v>8</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>45505</v>
+      </c>
+      <c r="E33" s="3">
         <v>886134.76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2113,10 +2590,14 @@
         <v>9</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>45536</v>
+      </c>
+      <c r="E34" s="3">
         <v>555555.78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2127,10 +2608,14 @@
         <v>10</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
+      <c r="E35" s="3">
         <v>965651.58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2141,10 +2626,14 @@
         <v>11</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>45597</v>
+      </c>
+      <c r="E36" s="3">
         <v>434778.67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2155,10 +2644,14 @@
         <v>12</v>
       </c>
       <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>45627</v>
+      </c>
+      <c r="E37" s="3">
         <v>533517.76</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2169,10 +2662,14 @@
         <v>1</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
+      <c r="E38" s="3">
         <v>572918.71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2183,10 +2680,14 @@
         <v>2</v>
       </c>
       <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>45689</v>
+      </c>
+      <c r="E39" s="3">
         <v>801813.52</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2197,10 +2698,14 @@
         <v>3</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>45717</v>
+      </c>
+      <c r="E40" s="3">
         <v>530317.56000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2211,10 +2716,14 @@
         <v>4</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>45748</v>
+      </c>
+      <c r="E41" s="3">
         <v>610600.38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2225,10 +2734,14 @@
         <v>5</v>
       </c>
       <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>45778</v>
+      </c>
+      <c r="E42" s="3">
         <v>207517.22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2239,10 +2752,14 @@
         <v>6</v>
       </c>
       <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>45809</v>
+      </c>
+      <c r="E43" s="3">
         <v>306188.08</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2253,10 +2770,14 @@
         <v>7</v>
       </c>
       <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>45839</v>
+      </c>
+      <c r="E44" s="3">
         <v>911741.21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2267,10 +2788,14 @@
         <v>8</v>
       </c>
       <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
+      <c r="E45" s="3">
         <v>150608.51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2281,10 +2806,14 @@
         <v>9</v>
       </c>
       <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>45901</v>
+      </c>
+      <c r="E46" s="3">
         <v>3555.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2295,10 +2824,14 @@
         <v>1</v>
       </c>
       <c r="D47" s="2">
-        <v>58292031.582985923</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44562</v>
+      </c>
+      <c r="E47" s="3">
+        <v>58292031.579999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2309,10 +2842,14 @@
         <v>2</v>
       </c>
       <c r="D48" s="2">
-        <v>30061441.867463056</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44593</v>
+      </c>
+      <c r="E48" s="3">
+        <v>30061441.870000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2323,10 +2860,14 @@
         <v>3</v>
       </c>
       <c r="D49" s="2">
-        <v>22894291.724946313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44621</v>
+      </c>
+      <c r="E49" s="3">
+        <v>22894291.719999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2337,10 +2878,14 @@
         <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>56682196.513159558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="E50" s="3">
+        <v>56682196.509999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2351,10 +2896,14 @@
         <v>5</v>
       </c>
       <c r="D51" s="2">
-        <v>48728889.428558767</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
+      <c r="E51" s="3">
+        <v>48728889.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2365,10 +2914,14 @@
         <v>6</v>
       </c>
       <c r="D52" s="2">
-        <v>55239775.799300306</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="E52" s="3">
+        <v>55239775.799999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2379,10 +2932,14 @@
         <v>7</v>
       </c>
       <c r="D53" s="2">
-        <v>82118988.491544321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="E53" s="3">
+        <v>82118988.489999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2393,10 +2950,14 @@
         <v>8</v>
       </c>
       <c r="D54" s="2">
-        <v>83441183.160083652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44774</v>
+      </c>
+      <c r="E54" s="3">
+        <v>83441183.159999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2407,10 +2968,14 @@
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>309081.15001807566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44805</v>
+      </c>
+      <c r="E55" s="3">
+        <v>309081.15000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2421,10 +2986,14 @@
         <v>10</v>
       </c>
       <c r="D56" s="2">
-        <v>51050956.348391943</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="E56" s="3">
+        <v>51050956.350000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2435,10 +3004,14 @@
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>16234581.285588101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16234581.289999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2449,10 +3022,14 @@
         <v>12</v>
       </c>
       <c r="D58" s="2">
-        <v>40579348.630596936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="E58" s="3">
+        <v>40579348.630000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2463,10 +3040,14 @@
         <v>1</v>
       </c>
       <c r="D59" s="2">
-        <v>19923346.355183456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44927</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19923346.359999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2477,10 +3058,14 @@
         <v>2</v>
       </c>
       <c r="D60" s="2">
-        <v>94833079.481485233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
+      <c r="E60" s="3">
+        <v>94833079.480000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2491,10 +3076,14 @@
         <v>3</v>
       </c>
       <c r="D61" s="2">
-        <v>58745603.878563926</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
+      <c r="E61" s="3">
+        <v>58745603.880000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2505,10 +3094,14 @@
         <v>4</v>
       </c>
       <c r="D62" s="2">
-        <v>56203943.586712778</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="E62" s="3">
+        <v>56203943.590000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2519,10 +3112,14 @@
         <v>5</v>
       </c>
       <c r="D63" s="2">
-        <v>88861841.655761257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="E63" s="3">
+        <v>88861841.659999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2533,10 +3130,14 @@
         <v>6</v>
       </c>
       <c r="D64" s="2">
-        <v>86121341.279058754</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
+      <c r="E64" s="3">
+        <v>86121341.280000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2547,10 +3148,14 @@
         <v>7</v>
       </c>
       <c r="D65" s="2">
-        <v>80641776.915944248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="E65" s="3">
+        <v>80641776.920000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2561,10 +3166,14 @@
         <v>8</v>
       </c>
       <c r="D66" s="2">
-        <v>14405254.769351538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14405254.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2575,10 +3184,14 @@
         <v>9</v>
       </c>
       <c r="D67" s="2">
-        <v>25760319.743052527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D67:D91" si="1">DATE(B67, C67, 1)</f>
+        <v>45170</v>
+      </c>
+      <c r="E67" s="3">
+        <v>25760319.739999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2589,10 +3202,14 @@
         <v>10</v>
       </c>
       <c r="D68" s="2">
-        <v>23460904.289219219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45200</v>
+      </c>
+      <c r="E68" s="3">
+        <v>23460904.289999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2603,10 +3220,14 @@
         <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>46704020.489051871</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45231</v>
+      </c>
+      <c r="E69" s="3">
+        <v>46704020.490000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2617,10 +3238,14 @@
         <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>62462936.014966875</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45261</v>
+      </c>
+      <c r="E70" s="3">
+        <v>62462936.009999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2631,10 +3256,14 @@
         <v>1</v>
       </c>
       <c r="D71" s="2">
-        <v>43397410.173653886</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45292</v>
+      </c>
+      <c r="E71" s="3">
+        <v>43397410.170000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2645,10 +3274,14 @@
         <v>2</v>
       </c>
       <c r="D72" s="2">
-        <v>72771222.716311142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45323</v>
+      </c>
+      <c r="E72" s="3">
+        <v>72771222.719999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2659,10 +3292,14 @@
         <v>3</v>
       </c>
       <c r="D73" s="2">
-        <v>80236642.518346354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="E73" s="3">
+        <v>80236642.519999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2673,10 +3310,14 @@
         <v>4</v>
       </c>
       <c r="D74" s="2">
-        <v>5421172.9598109378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5421172.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2687,10 +3328,14 @@
         <v>5</v>
       </c>
       <c r="D75" s="2">
-        <v>68808680.050405353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45413</v>
+      </c>
+      <c r="E75" s="3">
+        <v>68808680.049999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2701,10 +3346,14 @@
         <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>5156477.6178698372</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45444</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5156477.62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2715,10 +3364,14 @@
         <v>7</v>
       </c>
       <c r="D77" s="2">
-        <v>40319673.594589792</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="E77" s="3">
+        <v>40319673.590000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2729,10 +3382,14 @@
         <v>8</v>
       </c>
       <c r="D78" s="2">
-        <v>34536078.893841125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45505</v>
+      </c>
+      <c r="E78" s="3">
+        <v>34536078.890000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2743,10 +3400,14 @@
         <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>53568004.90593069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45536</v>
+      </c>
+      <c r="E79" s="3">
+        <v>53568004.909999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2757,10 +3418,14 @@
         <v>10</v>
       </c>
       <c r="D80" s="2">
-        <v>38822993.212285362</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45566</v>
+      </c>
+      <c r="E80" s="3">
+        <v>38822993.210000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2771,10 +3436,14 @@
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>3466979.0871259985</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45597</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3466979.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2785,10 +3454,14 @@
         <v>12</v>
       </c>
       <c r="D82" s="2">
-        <v>46452967.1774472</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45627</v>
+      </c>
+      <c r="E82" s="3">
+        <v>46452967.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2799,10 +3472,14 @@
         <v>1</v>
       </c>
       <c r="D83" s="2">
-        <v>91439350.512951344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45658</v>
+      </c>
+      <c r="E83" s="3">
+        <v>91439350.510000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2813,10 +3490,14 @@
         <v>2</v>
       </c>
       <c r="D84" s="2">
-        <v>68789075.977828339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45689</v>
+      </c>
+      <c r="E84" s="3">
+        <v>68789075.980000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2827,10 +3508,14 @@
         <v>3</v>
       </c>
       <c r="D85" s="2">
-        <v>57363328.92742455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45717</v>
+      </c>
+      <c r="E85" s="3">
+        <v>57363328.93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2841,10 +3526,14 @@
         <v>4</v>
       </c>
       <c r="D86" s="2">
-        <v>43955928.550041348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45748</v>
+      </c>
+      <c r="E86" s="3">
+        <v>43955928.549999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2855,10 +3544,14 @@
         <v>5</v>
       </c>
       <c r="D87" s="2">
-        <v>109092.26097457481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45778</v>
+      </c>
+      <c r="E87" s="3">
+        <v>109092.26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2869,10 +3562,14 @@
         <v>6</v>
       </c>
       <c r="D88" s="2">
-        <v>22619993.373041127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45809</v>
+      </c>
+      <c r="E88" s="3">
+        <v>22619993.370000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2883,10 +3580,14 @@
         <v>7</v>
       </c>
       <c r="D89" s="2">
-        <v>21588918.835395321</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45839</v>
+      </c>
+      <c r="E89" s="3">
+        <v>21588918.84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2897,10 +3598,14 @@
         <v>8</v>
       </c>
       <c r="D90" s="2">
-        <v>96710773.231796682</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>45870</v>
+      </c>
+      <c r="E90" s="3">
+        <v>96710773.230000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2911,16 +3616,21 @@
         <v>9</v>
       </c>
       <c r="D91" s="2">
-        <v>12951517.08017458</v>
+        <f t="shared" si="1"/>
+        <v>45901</v>
+      </c>
+      <c r="E91" s="3">
+        <v>12951517.08</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E91" xr:uid="{55654AD7-ACDA-4A24-87C9-A7A489EF6741}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{3741da7a-79c1-417c-b408-16c0bfe99fca}" enabled="1" method="Standard" siteId="{1e355c04-e0a4-42ed-8e2d-7351591f0ef1}" contentBits="0" removed="0"/>
+  <clbl:label id="{3741da7a-79c1-417c-b408-16c0bfe99fca}" enabled="1" method="Standard" siteId="{1e355c04-e0a4-42ed-8e2d-7351591f0ef1}" removed="0"/>
 </clbl:labelList>
 </file>